--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -25,10 +25,10 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Thanush Shetty</t>
+    <t xml:space="preserve">pratham </t>
   </si>
   <si>
-    <t>thanushshetty7@gmail.com</t>
+    <t>prathampshetty99sai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -153,7 +153,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +468,10 @@
   <cols>
     <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="44.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>3</v>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">pratham </t>
   </si>
   <si>
-    <t>prathampshetty99sai@gmail.com</t>
+    <t>prathampshetty99sai@gmail.co</t>
   </si>
 </sst>
 </file>
